--- a/mcmaster_excel/Metric_High-Strength_A286_Stainless_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_High-Strength_A286_Stainless_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,72 +434,76 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>A286 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,7 +546,11 @@
           <t>$4.59</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -590,7 +598,11 @@
           <t>4.83</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -638,7 +650,11 @@
           <t>5.67</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -686,7 +702,11 @@
           <t>5.85</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -734,7 +754,11 @@
           <t>6.55</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -744,17 +768,49 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>140,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>90942A116</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -764,7 +820,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -794,15 +850,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>90942A116</t>
+          <t>90942A117</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -812,7 +872,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -842,15 +902,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>90942A117</t>
+          <t>90942A118</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -860,7 +924,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,15 +954,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>90942A118</t>
+          <t>90942A119</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -908,7 +976,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -938,15 +1006,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>90942A119</t>
+          <t>90942A121</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -956,7 +1028,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -966,17 +1038,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -986,15 +1058,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>90942A121</t>
+          <t>90942A122</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1004,17 +1080,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>140,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>90942A123</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1024,7 +1132,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1054,15 +1162,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>90942A122</t>
+          <t>90942A124</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1072,7 +1184,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1102,15 +1214,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>90942A123</t>
+          <t>90942A125</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1120,7 +1236,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1150,15 +1266,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>90942A124</t>
+          <t>90942A126</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1168,7 +1288,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1178,17 +1298,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1198,15 +1318,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>90942A125</t>
+          <t>90942A127</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1216,7 +1340,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1226,17 +1350,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1246,15 +1370,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>90942A126</t>
+          <t>90942A128</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1264,17 +1392,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>140,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>90942A129</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1284,7 +1444,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1314,15 +1474,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>90942A127</t>
+          <t>90942A131</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
@@ -1332,7 +1496,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1362,160 +1526,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>90942A128</t>
+          <t>90942A132</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>A286 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>140,000</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>90942A129</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>A286 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>140,000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>90942A131</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>A286 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>140,000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>90942A132</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>19.37</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
         <is>
           <t>A286 Stainless Steel</t>
         </is>
